--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N476"/>
+  <dimension ref="A1:N477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21411,6 +21411,50 @@
         <v>13.152</v>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B477" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C477" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D477" t="n">
+        <v>9.308999999999999</v>
+      </c>
+      <c r="E477" t="n">
+        <v>10.355</v>
+      </c>
+      <c r="F477" t="n">
+        <v>11.201</v>
+      </c>
+      <c r="G477" t="n">
+        <v>11.514</v>
+      </c>
+      <c r="H477" t="n">
+        <v>11.828</v>
+      </c>
+      <c r="I477" t="n">
+        <v>11.981</v>
+      </c>
+      <c r="J477" t="n">
+        <v>12.257</v>
+      </c>
+      <c r="K477" t="n">
+        <v>12.573</v>
+      </c>
+      <c r="L477" t="n">
+        <v>12.623</v>
+      </c>
+      <c r="M477" t="n">
+        <v>13.104</v>
+      </c>
+      <c r="N477" t="n">
+        <v>13.152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N477"/>
+  <dimension ref="A1:N478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21455,6 +21455,50 @@
         <v>13.152</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B478" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="C478" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D478" t="n">
+        <v>9.465</v>
+      </c>
+      <c r="E478" t="n">
+        <v>10.145</v>
+      </c>
+      <c r="F478" t="n">
+        <v>11.307</v>
+      </c>
+      <c r="G478" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="H478" t="n">
+        <v>11.67</v>
+      </c>
+      <c r="I478" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="J478" t="n">
+        <v>12.257</v>
+      </c>
+      <c r="K478" t="n">
+        <v>12.361</v>
+      </c>
+      <c r="L478" t="n">
+        <v>12.517</v>
+      </c>
+      <c r="M478" t="n">
+        <v>13.158</v>
+      </c>
+      <c r="N478" t="n">
+        <v>13.418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -21460,7 +21460,7 @@
         <v>44617</v>
       </c>
       <c r="B478" t="n">
-        <v>8.75</v>
+        <v>8.6</v>
       </c>
       <c r="C478" t="n">
         <v>8.65</v>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N478"/>
+  <dimension ref="A1:N479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21499,6 +21499,50 @@
         <v>13.418</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B479" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C479" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D479" t="n">
+        <v>9.465</v>
+      </c>
+      <c r="E479" t="n">
+        <v>10.512</v>
+      </c>
+      <c r="F479" t="n">
+        <v>11.835</v>
+      </c>
+      <c r="G479" t="n">
+        <v>12.201</v>
+      </c>
+      <c r="H479" t="n">
+        <v>12.305</v>
+      </c>
+      <c r="I479" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J479" t="n">
+        <v>12.682</v>
+      </c>
+      <c r="K479" t="n">
+        <v>13.211</v>
+      </c>
+      <c r="L479" t="n">
+        <v>13.366</v>
+      </c>
+      <c r="M479" t="n">
+        <v>13.477</v>
+      </c>
+      <c r="N479" t="n">
+        <v>13.684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N479"/>
+  <dimension ref="A1:N480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21543,6 +21543,50 @@
         <v>13.684</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B480" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C480" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="D480" t="n">
+        <v>9.465</v>
+      </c>
+      <c r="E480" t="n">
+        <v>10.512</v>
+      </c>
+      <c r="F480" t="n">
+        <v>11.835</v>
+      </c>
+      <c r="G480" t="n">
+        <v>12.201</v>
+      </c>
+      <c r="H480" t="n">
+        <v>12.384</v>
+      </c>
+      <c r="I480" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="J480" t="n">
+        <v>12.655</v>
+      </c>
+      <c r="K480" t="n">
+        <v>12.839</v>
+      </c>
+      <c r="L480" t="n">
+        <v>13.393</v>
+      </c>
+      <c r="M480" t="n">
+        <v>13.743</v>
+      </c>
+      <c r="N480" t="n">
+        <v>13.684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N480"/>
+  <dimension ref="A1:N481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21587,6 +21587,50 @@
         <v>13.684</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B481" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C481" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D481" t="n">
+        <v>9.778</v>
+      </c>
+      <c r="E481" t="n">
+        <v>10.616</v>
+      </c>
+      <c r="F481" t="n">
+        <v>12.948</v>
+      </c>
+      <c r="G481" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="H481" t="n">
+        <v>13.208</v>
+      </c>
+      <c r="I481" t="n">
+        <v>13.414</v>
+      </c>
+      <c r="J481" t="n">
+        <v>13.586</v>
+      </c>
+      <c r="K481" t="n">
+        <v>13.611</v>
+      </c>
+      <c r="L481" t="n">
+        <v>13.713</v>
+      </c>
+      <c r="M481" t="n">
+        <v>13.983</v>
+      </c>
+      <c r="N481" t="n">
+        <v>13.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21631,6 +21631,50 @@
         <v>13.95</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B482" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C482" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D482" t="n">
+        <v>9.778</v>
+      </c>
+      <c r="E482" t="n">
+        <v>10.616</v>
+      </c>
+      <c r="F482" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="G482" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="H482" t="n">
+        <v>13.208</v>
+      </c>
+      <c r="I482" t="n">
+        <v>13.414</v>
+      </c>
+      <c r="J482" t="n">
+        <v>13.586</v>
+      </c>
+      <c r="K482" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="L482" t="n">
+        <v>13.713</v>
+      </c>
+      <c r="M482" t="n">
+        <v>13.983</v>
+      </c>
+      <c r="N482" t="n">
+        <v>13.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N482"/>
+  <dimension ref="A1:N483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21675,6 +21675,50 @@
         <v>13.95</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B483" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C483" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D483" t="n">
+        <v>9.778</v>
+      </c>
+      <c r="E483" t="n">
+        <v>10.616</v>
+      </c>
+      <c r="F483" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="G483" t="n">
+        <v>12.465</v>
+      </c>
+      <c r="H483" t="n">
+        <v>12.888</v>
+      </c>
+      <c r="I483" t="n">
+        <v>13.813</v>
+      </c>
+      <c r="J483" t="n">
+        <v>13.906</v>
+      </c>
+      <c r="K483" t="n">
+        <v>13.957</v>
+      </c>
+      <c r="L483" t="n">
+        <v>14.059</v>
+      </c>
+      <c r="M483" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="N483" t="n">
+        <v>14.271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N483"/>
+  <dimension ref="A1:N484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21719,6 +21719,50 @@
         <v>14.271</v>
       </c>
     </row>
+    <row r="484">
+      <c r="A484" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B484" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="C484" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="D484" t="n">
+        <v>9.776999999999999</v>
+      </c>
+      <c r="E484" t="n">
+        <v>10.616</v>
+      </c>
+      <c r="F484" t="n">
+        <v>12.099</v>
+      </c>
+      <c r="G484" t="n">
+        <v>12.465</v>
+      </c>
+      <c r="H484" t="n">
+        <v>12.888</v>
+      </c>
+      <c r="I484" t="n">
+        <v>13.813</v>
+      </c>
+      <c r="J484" t="n">
+        <v>13.906</v>
+      </c>
+      <c r="K484" t="n">
+        <v>13.957</v>
+      </c>
+      <c r="L484" t="n">
+        <v>14.059</v>
+      </c>
+      <c r="M484" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="N484" t="n">
+        <v>14.271</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N484"/>
+  <dimension ref="A1:N485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21763,6 +21763,50 @@
         <v>14.271</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B485" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C485" t="n">
+        <v>10</v>
+      </c>
+      <c r="D485" t="n">
+        <v>10.118</v>
+      </c>
+      <c r="E485" t="n">
+        <v>11.037</v>
+      </c>
+      <c r="F485" t="n">
+        <v>12.628</v>
+      </c>
+      <c r="G485" t="n">
+        <v>13.023</v>
+      </c>
+      <c r="H485" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="I485" t="n">
+        <v>13.467</v>
+      </c>
+      <c r="J485" t="n">
+        <v>13.532</v>
+      </c>
+      <c r="K485" t="n">
+        <v>13.689</v>
+      </c>
+      <c r="L485" t="n">
+        <v>13.792</v>
+      </c>
+      <c r="M485" t="n">
+        <v>13.689</v>
+      </c>
+      <c r="N485" t="n">
+        <v>13.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N485"/>
+  <dimension ref="A1:N486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21807,6 +21807,50 @@
         <v>13.95</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B486" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="C486" t="n">
+        <v>10</v>
+      </c>
+      <c r="D486" t="n">
+        <v>10.118</v>
+      </c>
+      <c r="E486" t="n">
+        <v>11.037</v>
+      </c>
+      <c r="F486" t="n">
+        <v>13.064</v>
+      </c>
+      <c r="G486" t="n">
+        <v>13.156</v>
+      </c>
+      <c r="H486" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="I486" t="n">
+        <v>13.467</v>
+      </c>
+      <c r="J486" t="n">
+        <v>13.532</v>
+      </c>
+      <c r="K486" t="n">
+        <v>13.689</v>
+      </c>
+      <c r="L486" t="n">
+        <v>13.792</v>
+      </c>
+      <c r="M486" t="n">
+        <v>13.689</v>
+      </c>
+      <c r="N486" t="n">
+        <v>13.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N486"/>
+  <dimension ref="A1:N487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21851,6 +21851,50 @@
         <v>13.95</v>
       </c>
     </row>
+    <row r="487">
+      <c r="A487" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B487" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C487" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D487" t="n">
+        <v>9.776</v>
+      </c>
+      <c r="E487" t="n">
+        <v>10.616</v>
+      </c>
+      <c r="F487" t="n">
+        <v>13.329</v>
+      </c>
+      <c r="G487" t="n">
+        <v>13.422</v>
+      </c>
+      <c r="H487" t="n">
+        <v>13.606</v>
+      </c>
+      <c r="I487" t="n">
+        <v>13.814</v>
+      </c>
+      <c r="J487" t="n">
+        <v>13.905</v>
+      </c>
+      <c r="K487" t="n">
+        <v>13.956</v>
+      </c>
+      <c r="L487" t="n">
+        <v>14.059</v>
+      </c>
+      <c r="M487" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="N487" t="n">
+        <v>14.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N487"/>
+  <dimension ref="A1:N488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21895,6 +21895,50 @@
         <v>14.27</v>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B488" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="C488" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="D488" t="n">
+        <v>12.359</v>
+      </c>
+      <c r="E488" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="F488" t="n">
+        <v>15.148</v>
+      </c>
+      <c r="G488" t="n">
+        <v>15.347</v>
+      </c>
+      <c r="H488" t="n">
+        <v>15.775</v>
+      </c>
+      <c r="I488" t="n">
+        <v>15.822</v>
+      </c>
+      <c r="J488" t="n">
+        <v>16.104</v>
+      </c>
+      <c r="K488" t="n">
+        <v>16.209</v>
+      </c>
+      <c r="L488" t="n">
+        <v>16.339</v>
+      </c>
+      <c r="M488" t="n">
+        <v>16.372</v>
+      </c>
+      <c r="N488" t="n">
+        <v>16.444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N488"/>
+  <dimension ref="A1:N489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21939,6 +21939,50 @@
         <v>16.444</v>
       </c>
     </row>
+    <row r="489">
+      <c r="A489" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B489" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C489" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D489" t="n">
+        <v>11.988</v>
+      </c>
+      <c r="E489" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="F489" t="n">
+        <v>14.772</v>
+      </c>
+      <c r="G489" t="n">
+        <v>15.024</v>
+      </c>
+      <c r="H489" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="I489" t="n">
+        <v>15.552</v>
+      </c>
+      <c r="J489" t="n">
+        <v>15.835</v>
+      </c>
+      <c r="K489" t="n">
+        <v>16.101</v>
+      </c>
+      <c r="L489" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="M489" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N489" t="n">
+        <v>16.633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N489"/>
+  <dimension ref="A1:N490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21983,6 +21983,50 @@
         <v>16.633</v>
       </c>
     </row>
+    <row r="490">
+      <c r="A490" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B490" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C490" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D490" t="n">
+        <v>11.988</v>
+      </c>
+      <c r="E490" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="F490" t="n">
+        <v>15.148</v>
+      </c>
+      <c r="G490" t="n">
+        <v>15.346</v>
+      </c>
+      <c r="H490" t="n">
+        <v>15.775</v>
+      </c>
+      <c r="I490" t="n">
+        <v>15.822</v>
+      </c>
+      <c r="J490" t="n">
+        <v>16.104</v>
+      </c>
+      <c r="K490" t="n">
+        <v>16.209</v>
+      </c>
+      <c r="L490" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M490" t="n">
+        <v>16.372</v>
+      </c>
+      <c r="N490" t="n">
+        <v>16.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N490"/>
+  <dimension ref="A1:N491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22027,6 +22027,50 @@
         <v>16.445</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B491" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C491" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D491" t="n">
+        <v>11.989</v>
+      </c>
+      <c r="E491" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="F491" t="n">
+        <v>14.771</v>
+      </c>
+      <c r="G491" t="n">
+        <v>15.024</v>
+      </c>
+      <c r="H491" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="I491" t="n">
+        <v>15.554</v>
+      </c>
+      <c r="J491" t="n">
+        <v>15.834</v>
+      </c>
+      <c r="K491" t="n">
+        <v>16.101</v>
+      </c>
+      <c r="L491" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="M491" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N491" t="n">
+        <v>16.633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N491"/>
+  <dimension ref="A1:N492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22071,6 +22071,50 @@
         <v>16.633</v>
       </c>
     </row>
+    <row r="492">
+      <c r="A492" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B492" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C492" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D492" t="n">
+        <v>11.989</v>
+      </c>
+      <c r="E492" t="n">
+        <v>14.275</v>
+      </c>
+      <c r="F492" t="n">
+        <v>15.147</v>
+      </c>
+      <c r="G492" t="n">
+        <v>15.346</v>
+      </c>
+      <c r="H492" t="n">
+        <v>15.775</v>
+      </c>
+      <c r="I492" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J492" t="n">
+        <v>16.104</v>
+      </c>
+      <c r="K492" t="n">
+        <v>16.209</v>
+      </c>
+      <c r="L492" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M492" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N492" t="n">
+        <v>16.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N492"/>
+  <dimension ref="A1:N493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22115,6 +22115,50 @@
         <v>16.445</v>
       </c>
     </row>
+    <row r="493">
+      <c r="A493" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B493" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C493" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D493" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E493" t="n">
+        <v>14.328</v>
+      </c>
+      <c r="F493" t="n">
+        <v>15.147</v>
+      </c>
+      <c r="G493" t="n">
+        <v>15.346</v>
+      </c>
+      <c r="H493" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I493" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J493" t="n">
+        <v>16.104</v>
+      </c>
+      <c r="K493" t="n">
+        <v>16.209</v>
+      </c>
+      <c r="L493" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M493" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N493" t="n">
+        <v>16.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N493"/>
+  <dimension ref="A1:N494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22159,6 +22159,50 @@
         <v>16.445</v>
       </c>
     </row>
+    <row r="494">
+      <c r="A494" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B494" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C494" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D494" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E494" t="n">
+        <v>14.221</v>
+      </c>
+      <c r="F494" t="n">
+        <v>14.771</v>
+      </c>
+      <c r="G494" t="n">
+        <v>15.023</v>
+      </c>
+      <c r="H494" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="I494" t="n">
+        <v>15.554</v>
+      </c>
+      <c r="J494" t="n">
+        <v>15.834</v>
+      </c>
+      <c r="K494" t="n">
+        <v>16.101</v>
+      </c>
+      <c r="L494" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="M494" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N494" t="n">
+        <v>16.633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N494"/>
+  <dimension ref="A1:N495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22203,6 +22203,50 @@
         <v>16.633</v>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B495" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C495" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D495" t="n">
+        <v>12.627</v>
+      </c>
+      <c r="E495" t="n">
+        <v>14.757</v>
+      </c>
+      <c r="F495" t="n">
+        <v>14.878</v>
+      </c>
+      <c r="G495" t="n">
+        <v>14.969</v>
+      </c>
+      <c r="H495" t="n">
+        <v>15.076</v>
+      </c>
+      <c r="I495" t="n">
+        <v>15.178</v>
+      </c>
+      <c r="J495" t="n">
+        <v>15.834</v>
+      </c>
+      <c r="K495" t="n">
+        <v>16.101</v>
+      </c>
+      <c r="L495" t="n">
+        <v>16.258</v>
+      </c>
+      <c r="M495" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N495" t="n">
+        <v>16.633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N495"/>
+  <dimension ref="A1:N496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22247,6 +22247,50 @@
         <v>16.633</v>
       </c>
     </row>
+    <row r="496">
+      <c r="A496" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B496" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C496" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D496" t="n">
+        <v>12.627</v>
+      </c>
+      <c r="E496" t="n">
+        <v>14.757</v>
+      </c>
+      <c r="F496" t="n">
+        <v>14.878</v>
+      </c>
+      <c r="G496" t="n">
+        <v>14.969</v>
+      </c>
+      <c r="H496" t="n">
+        <v>15.076</v>
+      </c>
+      <c r="I496" t="n">
+        <v>15.178</v>
+      </c>
+      <c r="J496" t="n">
+        <v>16.104</v>
+      </c>
+      <c r="K496" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L496" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M496" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N496" t="n">
+        <v>16.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N496"/>
+  <dimension ref="A1:N497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22291,6 +22291,50 @@
         <v>16.445</v>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B497" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C497" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D497" t="n">
+        <v>12.627</v>
+      </c>
+      <c r="E497" t="n">
+        <v>14.757</v>
+      </c>
+      <c r="F497" t="n">
+        <v>14.877</v>
+      </c>
+      <c r="G497" t="n">
+        <v>14.969</v>
+      </c>
+      <c r="H497" t="n">
+        <v>15.076</v>
+      </c>
+      <c r="I497" t="n">
+        <v>15.178</v>
+      </c>
+      <c r="J497" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K497" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L497" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M497" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N497" t="n">
+        <v>16.634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N497"/>
+  <dimension ref="A1:N498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22335,6 +22335,50 @@
         <v>16.634</v>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B498" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C498" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D498" t="n">
+        <v>12.627</v>
+      </c>
+      <c r="E498" t="n">
+        <v>14.757</v>
+      </c>
+      <c r="F498" t="n">
+        <v>14.877</v>
+      </c>
+      <c r="G498" t="n">
+        <v>14.969</v>
+      </c>
+      <c r="H498" t="n">
+        <v>15.076</v>
+      </c>
+      <c r="I498" t="n">
+        <v>15.178</v>
+      </c>
+      <c r="J498" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K498" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L498" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M498" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N498" t="n">
+        <v>16.445</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N498"/>
+  <dimension ref="A1:N499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22379,6 +22379,50 @@
         <v>16.445</v>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B499" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C499" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D499" t="n">
+        <v>12.628</v>
+      </c>
+      <c r="E499" t="n">
+        <v>14.757</v>
+      </c>
+      <c r="F499" t="n">
+        <v>14.877</v>
+      </c>
+      <c r="G499" t="n">
+        <v>14.969</v>
+      </c>
+      <c r="H499" t="n">
+        <v>15.076</v>
+      </c>
+      <c r="I499" t="n">
+        <v>15.178</v>
+      </c>
+      <c r="J499" t="n">
+        <v>15.833</v>
+      </c>
+      <c r="K499" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L499" t="n">
+        <v>16.259</v>
+      </c>
+      <c r="M499" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="N499" t="n">
+        <v>16.634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N499"/>
+  <dimension ref="A1:N500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22423,6 +22423,50 @@
         <v>16.634</v>
       </c>
     </row>
+    <row r="500">
+      <c r="A500" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B500" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C500" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D500" t="n">
+        <v>12.629</v>
+      </c>
+      <c r="E500" t="n">
+        <v>14.758</v>
+      </c>
+      <c r="F500" t="n">
+        <v>14.877</v>
+      </c>
+      <c r="G500" t="n">
+        <v>14.968</v>
+      </c>
+      <c r="H500" t="n">
+        <v>15.075</v>
+      </c>
+      <c r="I500" t="n">
+        <v>15.178</v>
+      </c>
+      <c r="J500" t="n">
+        <v>15.833</v>
+      </c>
+      <c r="K500" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="L500" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="M500" t="n">
+        <v>16.369</v>
+      </c>
+      <c r="N500" t="n">
+        <v>16.634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N500"/>
+  <dimension ref="A1:N501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22467,6 +22467,50 @@
         <v>16.634</v>
       </c>
     </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B501" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="C501" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D501" t="n">
+        <v>12.63</v>
+      </c>
+      <c r="E501" t="n">
+        <v>14.651</v>
+      </c>
+      <c r="F501" t="n">
+        <v>15.253</v>
+      </c>
+      <c r="G501" t="n">
+        <v>15.559</v>
+      </c>
+      <c r="H501" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I501" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J501" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K501" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L501" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M501" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N501" t="n">
+        <v>16.472</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N501"/>
+  <dimension ref="A1:N502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22511,6 +22511,50 @@
         <v>16.472</v>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B502" t="n">
+        <v>13</v>
+      </c>
+      <c r="C502" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D502" t="n">
+        <v>13.827</v>
+      </c>
+      <c r="E502" t="n">
+        <v>14.759</v>
+      </c>
+      <c r="F502" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="G502" t="n">
+        <v>15.451</v>
+      </c>
+      <c r="H502" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I502" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J502" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K502" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L502" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M502" t="n">
+        <v>16.371</v>
+      </c>
+      <c r="N502" t="n">
+        <v>16.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N502"/>
+  <dimension ref="A1:N503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22555,6 +22555,50 @@
         <v>16.446</v>
       </c>
     </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B503" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C503" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D503" t="n">
+        <v>13.828</v>
+      </c>
+      <c r="E503" t="n">
+        <v>14.653</v>
+      </c>
+      <c r="F503" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="G503" t="n">
+        <v>15.451</v>
+      </c>
+      <c r="H503" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I503" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J503" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K503" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L503" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="M503" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="N503" t="n">
+        <v>16.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N503"/>
+  <dimension ref="A1:N504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22599,6 +22599,50 @@
         <v>16.446</v>
       </c>
     </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B504" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="C504" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D504" t="n">
+        <v>13.828</v>
+      </c>
+      <c r="E504" t="n">
+        <v>14.653</v>
+      </c>
+      <c r="F504" t="n">
+        <v>15.199</v>
+      </c>
+      <c r="G504" t="n">
+        <v>15.451</v>
+      </c>
+      <c r="H504" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I504" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J504" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K504" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L504" t="n">
+        <v>16.341</v>
+      </c>
+      <c r="M504" t="n">
+        <v>16.369</v>
+      </c>
+      <c r="N504" t="n">
+        <v>16.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N504"/>
+  <dimension ref="A1:N505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22643,6 +22643,50 @@
         <v>16.446</v>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B505" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C505" t="n">
+        <v>16</v>
+      </c>
+      <c r="D505" t="n">
+        <v>13.828</v>
+      </c>
+      <c r="E505" t="n">
+        <v>14.653</v>
+      </c>
+      <c r="F505" t="n">
+        <v>15.199</v>
+      </c>
+      <c r="G505" t="n">
+        <v>15.451</v>
+      </c>
+      <c r="H505" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I505" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J505" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K505" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L505" t="n">
+        <v>16.341</v>
+      </c>
+      <c r="M505" t="n">
+        <v>16.369</v>
+      </c>
+      <c r="N505" t="n">
+        <v>16.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N505"/>
+  <dimension ref="A1:N506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22687,6 +22687,50 @@
         <v>16.446</v>
       </c>
     </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B506" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="C506" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D506" t="n">
+        <v>13.828</v>
+      </c>
+      <c r="E506" t="n">
+        <v>14.653</v>
+      </c>
+      <c r="F506" t="n">
+        <v>15.199</v>
+      </c>
+      <c r="G506" t="n">
+        <v>15.451</v>
+      </c>
+      <c r="H506" t="n">
+        <v>15.774</v>
+      </c>
+      <c r="I506" t="n">
+        <v>15.823</v>
+      </c>
+      <c r="J506" t="n">
+        <v>16.103</v>
+      </c>
+      <c r="K506" t="n">
+        <v>16.208</v>
+      </c>
+      <c r="L506" t="n">
+        <v>16.341</v>
+      </c>
+      <c r="M506" t="n">
+        <v>16.369</v>
+      </c>
+      <c r="N506" t="n">
+        <v>16.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N506"/>
+  <dimension ref="A1:N507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22731,6 +22731,50 @@
         <v>16.446</v>
       </c>
     </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B507" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="C507" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D507" t="n">
+        <v>16.924</v>
+      </c>
+      <c r="E507" t="n">
+        <v>18.271</v>
+      </c>
+      <c r="F507" t="n">
+        <v>19.918</v>
+      </c>
+      <c r="G507" t="n">
+        <v>20.719</v>
+      </c>
+      <c r="H507" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="I507" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="J507" t="n">
+        <v>23.074</v>
+      </c>
+      <c r="K507" t="n">
+        <v>23.069</v>
+      </c>
+      <c r="L507" t="n">
+        <v>23.318</v>
+      </c>
+      <c r="M507" t="n">
+        <v>17.282</v>
+      </c>
+      <c r="N507" t="n">
+        <v>24.038</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N507"/>
+  <dimension ref="A1:N508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22775,6 +22775,50 @@
         <v>24.038</v>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B508" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="C508" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D508" t="n">
+        <v>22.121</v>
+      </c>
+      <c r="E508" t="n">
+        <v>18.271</v>
+      </c>
+      <c r="F508" t="n">
+        <v>23.785</v>
+      </c>
+      <c r="G508" t="n">
+        <v>24.316</v>
+      </c>
+      <c r="H508" t="n">
+        <v>25.435</v>
+      </c>
+      <c r="I508" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="J508" t="n">
+        <v>26.566</v>
+      </c>
+      <c r="K508" t="n">
+        <v>27.122</v>
+      </c>
+      <c r="L508" t="n">
+        <v>23.318</v>
+      </c>
+      <c r="M508" t="n">
+        <v>28.823</v>
+      </c>
+      <c r="N508" t="n">
+        <v>29.381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N508"/>
+  <dimension ref="A1:N509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22819,6 +22819,50 @@
         <v>29.381</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B509" t="n">
+        <v>23</v>
+      </c>
+      <c r="C509" t="n">
+        <v>24</v>
+      </c>
+      <c r="D509" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E509" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F509" t="n">
+        <v>21.622</v>
+      </c>
+      <c r="G509" t="n">
+        <v>23.147</v>
+      </c>
+      <c r="H509" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="I509" t="n">
+        <v>24.868</v>
+      </c>
+      <c r="J509" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K509" t="n">
+        <v>25.156</v>
+      </c>
+      <c r="L509" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M509" t="n">
+        <v>26.281</v>
+      </c>
+      <c r="N509" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N509"/>
+  <dimension ref="A1:N510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22863,6 +22863,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B510" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C510" t="n">
+        <v>22</v>
+      </c>
+      <c r="D510" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E510" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F510" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G510" t="n">
+        <v>27.962</v>
+      </c>
+      <c r="H510" t="n">
+        <v>29.667</v>
+      </c>
+      <c r="I510" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="J510" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K510" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="L510" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M510" t="n">
+        <v>33.689</v>
+      </c>
+      <c r="N510" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N510"/>
+  <dimension ref="A1:N511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22907,6 +22907,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B511" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>23</v>
+      </c>
+      <c r="D511" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E511" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F511" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G511" t="n">
+        <v>27.962</v>
+      </c>
+      <c r="H511" t="n">
+        <v>29.667</v>
+      </c>
+      <c r="I511" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="J511" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K511" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="L511" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M511" t="n">
+        <v>33.689</v>
+      </c>
+      <c r="N511" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N511"/>
+  <dimension ref="A1:N512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22951,6 +22951,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B512" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C512" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D512" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E512" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F512" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G512" t="n">
+        <v>27.962</v>
+      </c>
+      <c r="H512" t="n">
+        <v>29.667</v>
+      </c>
+      <c r="I512" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="J512" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K512" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="L512" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M512" t="n">
+        <v>33.689</v>
+      </c>
+      <c r="N512" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N512"/>
+  <dimension ref="A1:N513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22995,6 +22995,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B513" t="n">
+        <v>21</v>
+      </c>
+      <c r="C513" t="n">
+        <v>24</v>
+      </c>
+      <c r="D513" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E513" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F513" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G513" t="n">
+        <v>27.962</v>
+      </c>
+      <c r="H513" t="n">
+        <v>29.667</v>
+      </c>
+      <c r="I513" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="J513" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K513" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="L513" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M513" t="n">
+        <v>33.689</v>
+      </c>
+      <c r="N513" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N513"/>
+  <dimension ref="A1:N514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23039,6 +23039,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B514" t="n">
+        <v>21</v>
+      </c>
+      <c r="C514" t="n">
+        <v>24</v>
+      </c>
+      <c r="D514" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E514" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F514" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G514" t="n">
+        <v>27.962</v>
+      </c>
+      <c r="H514" t="n">
+        <v>29.667</v>
+      </c>
+      <c r="I514" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="J514" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K514" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="L514" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M514" t="n">
+        <v>33.689</v>
+      </c>
+      <c r="N514" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N514"/>
+  <dimension ref="A1:N515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23083,6 +23083,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B515" t="n">
+        <v>21</v>
+      </c>
+      <c r="C515" t="n">
+        <v>24</v>
+      </c>
+      <c r="D515" t="n">
+        <v>21.017</v>
+      </c>
+      <c r="E515" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="F515" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="G515" t="n">
+        <v>27.962</v>
+      </c>
+      <c r="H515" t="n">
+        <v>29.667</v>
+      </c>
+      <c r="I515" t="n">
+        <v>30.801</v>
+      </c>
+      <c r="J515" t="n">
+        <v>24.436</v>
+      </c>
+      <c r="K515" t="n">
+        <v>31.381</v>
+      </c>
+      <c r="L515" t="n">
+        <v>23.819</v>
+      </c>
+      <c r="M515" t="n">
+        <v>33.689</v>
+      </c>
+      <c r="N515" t="n">
+        <v>23.373</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N515"/>
+  <dimension ref="A1:N516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23127,6 +23127,50 @@
         <v>23.373</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B516" t="n">
+        <v>21</v>
+      </c>
+      <c r="C516" t="n">
+        <v>24</v>
+      </c>
+      <c r="D516" t="n">
+        <v>19.574</v>
+      </c>
+      <c r="E516" t="n">
+        <v>20.727</v>
+      </c>
+      <c r="F516" t="n">
+        <v>21.07</v>
+      </c>
+      <c r="G516" t="n">
+        <v>21.629</v>
+      </c>
+      <c r="H516" t="n">
+        <v>22.636</v>
+      </c>
+      <c r="I516" t="n">
+        <v>22.955</v>
+      </c>
+      <c r="J516" t="n">
+        <v>23.117</v>
+      </c>
+      <c r="K516" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="L516" t="n">
+        <v>22.316</v>
+      </c>
+      <c r="M516" t="n">
+        <v>24.445</v>
+      </c>
+      <c r="N516" t="n">
+        <v>24.211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N516"/>
+  <dimension ref="A1:N517"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23171,6 +23171,50 @@
         <v>24.211</v>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B517" t="n">
+        <v>21</v>
+      </c>
+      <c r="C517" t="n">
+        <v>24</v>
+      </c>
+      <c r="D517" t="n">
+        <v>17.315</v>
+      </c>
+      <c r="E517" t="n">
+        <v>18.928</v>
+      </c>
+      <c r="F517" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="G517" t="n">
+        <v>19.597</v>
+      </c>
+      <c r="H517" t="n">
+        <v>19.288</v>
+      </c>
+      <c r="I517" t="n">
+        <v>19.496</v>
+      </c>
+      <c r="J517" t="n">
+        <v>19.301</v>
+      </c>
+      <c r="K517" t="n">
+        <v>19.792</v>
+      </c>
+      <c r="L517" t="n">
+        <v>16.87</v>
+      </c>
+      <c r="M517" t="n">
+        <v>24.855</v>
+      </c>
+      <c r="N517" t="n">
+        <v>24.211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N517"/>
+  <dimension ref="A1:N518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23215,6 +23215,50 @@
         <v>24.211</v>
       </c>
     </row>
+    <row r="518">
+      <c r="A518" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B518" t="n">
+        <v>23</v>
+      </c>
+      <c r="C518" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D518" t="n">
+        <v>20.948</v>
+      </c>
+      <c r="E518" t="n">
+        <v>21.941</v>
+      </c>
+      <c r="F518" t="n">
+        <v>22.292</v>
+      </c>
+      <c r="G518" t="n">
+        <v>22.701</v>
+      </c>
+      <c r="H518" t="n">
+        <v>23.541</v>
+      </c>
+      <c r="I518" t="n">
+        <v>23.682</v>
+      </c>
+      <c r="J518" t="n">
+        <v>23.479</v>
+      </c>
+      <c r="K518" t="n">
+        <v>23.275</v>
+      </c>
+      <c r="L518" t="n">
+        <v>22.639</v>
+      </c>
+      <c r="M518" t="n">
+        <v>26.221</v>
+      </c>
+      <c r="N518" t="n">
+        <v>26.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N518"/>
+  <dimension ref="A1:N519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23259,6 +23259,50 @@
         <v>26.004</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B519" t="n">
+        <v>23</v>
+      </c>
+      <c r="C519" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="D519" t="n">
+        <v>20.947</v>
+      </c>
+      <c r="E519" t="n">
+        <v>21.941</v>
+      </c>
+      <c r="F519" t="n">
+        <v>22.292</v>
+      </c>
+      <c r="G519" t="n">
+        <v>22.701</v>
+      </c>
+      <c r="H519" t="n">
+        <v>23.541</v>
+      </c>
+      <c r="I519" t="n">
+        <v>23.682</v>
+      </c>
+      <c r="J519" t="n">
+        <v>23.479</v>
+      </c>
+      <c r="K519" t="n">
+        <v>23.275</v>
+      </c>
+      <c r="L519" t="n">
+        <v>22.639</v>
+      </c>
+      <c r="M519" t="n">
+        <v>26.221</v>
+      </c>
+      <c r="N519" t="n">
+        <v>26.004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N519"/>
+  <dimension ref="A1:N520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23303,6 +23303,50 @@
         <v>26.004</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B520" t="n">
+        <v>23</v>
+      </c>
+      <c r="C520" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="D520" t="n">
+        <v>20.997</v>
+      </c>
+      <c r="E520" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F520" t="n">
+        <v>22.425</v>
+      </c>
+      <c r="G520" t="n">
+        <v>22.546</v>
+      </c>
+      <c r="H520" t="n">
+        <v>22.944</v>
+      </c>
+      <c r="I520" t="n">
+        <v>23.068</v>
+      </c>
+      <c r="J520" t="n">
+        <v>22.606</v>
+      </c>
+      <c r="K520" t="n">
+        <v>22.662</v>
+      </c>
+      <c r="L520" t="n">
+        <v>22.781</v>
+      </c>
+      <c r="M520" t="n">
+        <v>24.996</v>
+      </c>
+      <c r="N520" t="n">
+        <v>23.587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N520"/>
+  <dimension ref="A1:N521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23347,6 +23347,50 @@
         <v>23.587</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B521" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="C521" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D521" t="n">
+        <v>21.001</v>
+      </c>
+      <c r="E521" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F521" t="n">
+        <v>22.381</v>
+      </c>
+      <c r="G521" t="n">
+        <v>22.545</v>
+      </c>
+      <c r="H521" t="n">
+        <v>22.944</v>
+      </c>
+      <c r="I521" t="n">
+        <v>23.069</v>
+      </c>
+      <c r="J521" t="n">
+        <v>22.607</v>
+      </c>
+      <c r="K521" t="n">
+        <v>22.662</v>
+      </c>
+      <c r="L521" t="n">
+        <v>22.781</v>
+      </c>
+      <c r="M521" t="n">
+        <v>24.996</v>
+      </c>
+      <c r="N521" t="n">
+        <v>23.587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N521"/>
+  <dimension ref="A1:N522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23391,6 +23391,50 @@
         <v>23.587</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B522" t="n">
+        <v>25</v>
+      </c>
+      <c r="C522" t="n">
+        <v>25</v>
+      </c>
+      <c r="D522" t="n">
+        <v>21.001</v>
+      </c>
+      <c r="E522" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F522" t="n">
+        <v>22.347</v>
+      </c>
+      <c r="G522" t="n">
+        <v>22.545</v>
+      </c>
+      <c r="H522" t="n">
+        <v>22.886</v>
+      </c>
+      <c r="I522" t="n">
+        <v>23.069</v>
+      </c>
+      <c r="J522" t="n">
+        <v>22.608</v>
+      </c>
+      <c r="K522" t="n">
+        <v>22.663</v>
+      </c>
+      <c r="L522" t="n">
+        <v>22.781</v>
+      </c>
+      <c r="M522" t="n">
+        <v>24.995</v>
+      </c>
+      <c r="N522" t="n">
+        <v>23.587</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N522"/>
+  <dimension ref="A1:N523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23435,6 +23435,50 @@
         <v>23.587</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B523" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C523" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D523" t="n">
+        <v>21.003</v>
+      </c>
+      <c r="E523" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="F523" t="n">
+        <v>22.348</v>
+      </c>
+      <c r="G523" t="n">
+        <v>22.545</v>
+      </c>
+      <c r="H523" t="n">
+        <v>22.554</v>
+      </c>
+      <c r="I523" t="n">
+        <v>22.515</v>
+      </c>
+      <c r="J523" t="n">
+        <v>22.056</v>
+      </c>
+      <c r="K523" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L523" t="n">
+        <v>22.782</v>
+      </c>
+      <c r="M523" t="n">
+        <v>24.158</v>
+      </c>
+      <c r="N523" t="n">
+        <v>22.617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N523"/>
+  <dimension ref="A1:N524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23479,6 +23479,50 @@
         <v>22.617</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B524" t="n">
+        <v>25</v>
+      </c>
+      <c r="C524" t="n">
+        <v>24</v>
+      </c>
+      <c r="D524" t="n">
+        <v>21</v>
+      </c>
+      <c r="E524" t="n">
+        <v>21.748</v>
+      </c>
+      <c r="F524" t="n">
+        <v>22.347</v>
+      </c>
+      <c r="G524" t="n">
+        <v>22.545</v>
+      </c>
+      <c r="H524" t="n">
+        <v>22.553</v>
+      </c>
+      <c r="I524" t="n">
+        <v>22.515</v>
+      </c>
+      <c r="J524" t="n">
+        <v>22.058</v>
+      </c>
+      <c r="K524" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L524" t="n">
+        <v>22.782</v>
+      </c>
+      <c r="M524" t="n">
+        <v>24.158</v>
+      </c>
+      <c r="N524" t="n">
+        <v>22.618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N524"/>
+  <dimension ref="A1:N525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23523,6 +23523,50 @@
         <v>22.618</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B525" t="n">
+        <v>23</v>
+      </c>
+      <c r="C525" t="n">
+        <v>24</v>
+      </c>
+      <c r="D525" t="n">
+        <v>21</v>
+      </c>
+      <c r="E525" t="n">
+        <v>21.748</v>
+      </c>
+      <c r="F525" t="n">
+        <v>22.347</v>
+      </c>
+      <c r="G525" t="n">
+        <v>22.545</v>
+      </c>
+      <c r="H525" t="n">
+        <v>22.553</v>
+      </c>
+      <c r="I525" t="n">
+        <v>22.515</v>
+      </c>
+      <c r="J525" t="n">
+        <v>22.059</v>
+      </c>
+      <c r="K525" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="L525" t="n">
+        <v>22.782</v>
+      </c>
+      <c r="M525" t="n">
+        <v>24.158</v>
+      </c>
+      <c r="N525" t="n">
+        <v>22.618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N525"/>
+  <dimension ref="A1:N526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23567,6 +23567,50 @@
         <v>22.618</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B526" t="n">
+        <v>23</v>
+      </c>
+      <c r="C526" t="n">
+        <v>24</v>
+      </c>
+      <c r="D526" t="n">
+        <v>21.004</v>
+      </c>
+      <c r="E526" t="n">
+        <v>22.139</v>
+      </c>
+      <c r="F526" t="n">
+        <v>22.251</v>
+      </c>
+      <c r="G526" t="n">
+        <v>22.354</v>
+      </c>
+      <c r="H526" t="n">
+        <v>22.035</v>
+      </c>
+      <c r="I526" t="n">
+        <v>21.768</v>
+      </c>
+      <c r="J526" t="n">
+        <v>21.251</v>
+      </c>
+      <c r="K526" t="n">
+        <v>21.243</v>
+      </c>
+      <c r="L526" t="n">
+        <v>21.493</v>
+      </c>
+      <c r="M526" t="n">
+        <v>22.968</v>
+      </c>
+      <c r="N526" t="n">
+        <v>22.618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N526"/>
+  <dimension ref="A1:N527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23611,6 +23611,50 @@
         <v>22.618</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B527" t="n">
+        <v>23</v>
+      </c>
+      <c r="C527" t="n">
+        <v>24</v>
+      </c>
+      <c r="D527" t="n">
+        <v>21.004</v>
+      </c>
+      <c r="E527" t="n">
+        <v>22.139</v>
+      </c>
+      <c r="F527" t="n">
+        <v>21.954</v>
+      </c>
+      <c r="G527" t="n">
+        <v>22.074</v>
+      </c>
+      <c r="H527" t="n">
+        <v>22.017</v>
+      </c>
+      <c r="I527" t="n">
+        <v>21.756</v>
+      </c>
+      <c r="J527" t="n">
+        <v>21.209</v>
+      </c>
+      <c r="K527" t="n">
+        <v>21.216</v>
+      </c>
+      <c r="L527" t="n">
+        <v>21.493</v>
+      </c>
+      <c r="M527" t="n">
+        <v>22.967</v>
+      </c>
+      <c r="N527" t="n">
+        <v>22.618</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N527"/>
+  <dimension ref="A1:N529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23655,6 +23655,94 @@
         <v>22.618</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B528" t="n">
+        <v>23</v>
+      </c>
+      <c r="C528" t="n">
+        <v>24</v>
+      </c>
+      <c r="D528" t="n">
+        <v>20.786</v>
+      </c>
+      <c r="E528" t="n">
+        <v>21.917</v>
+      </c>
+      <c r="F528" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="G528" t="n">
+        <v>21.893</v>
+      </c>
+      <c r="H528" t="n">
+        <v>21.988</v>
+      </c>
+      <c r="I528" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="J528" t="n">
+        <v>21.103</v>
+      </c>
+      <c r="K528" t="n">
+        <v>20.961</v>
+      </c>
+      <c r="L528" t="n">
+        <v>21.506</v>
+      </c>
+      <c r="M528" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="N528" t="n">
+        <v>22.479</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B529" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C529" t="n">
+        <v>24</v>
+      </c>
+      <c r="D529" t="n">
+        <v>20.781</v>
+      </c>
+      <c r="E529" t="n">
+        <v>21.915</v>
+      </c>
+      <c r="F529" t="n">
+        <v>21.765</v>
+      </c>
+      <c r="G529" t="n">
+        <v>21.892</v>
+      </c>
+      <c r="H529" t="n">
+        <v>21.986</v>
+      </c>
+      <c r="I529" t="n">
+        <v>21.714</v>
+      </c>
+      <c r="J529" t="n">
+        <v>21.104</v>
+      </c>
+      <c r="K529" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="L529" t="n">
+        <v>21.506</v>
+      </c>
+      <c r="M529" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="N529" t="n">
+        <v>22.479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N529"/>
+  <dimension ref="A1:N530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23743,6 +23743,50 @@
         <v>22.479</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B530" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C530" t="n">
+        <v>24</v>
+      </c>
+      <c r="D530" t="n">
+        <v>20.854</v>
+      </c>
+      <c r="E530" t="n">
+        <v>21.407</v>
+      </c>
+      <c r="F530" t="n">
+        <v>21.308</v>
+      </c>
+      <c r="G530" t="n">
+        <v>21.49</v>
+      </c>
+      <c r="H530" t="n">
+        <v>21.452</v>
+      </c>
+      <c r="I530" t="n">
+        <v>21.437</v>
+      </c>
+      <c r="J530" t="n">
+        <v>21.332</v>
+      </c>
+      <c r="K530" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="L530" t="n">
+        <v>22.045</v>
+      </c>
+      <c r="M530" t="n">
+        <v>21.413</v>
+      </c>
+      <c r="N530" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N530"/>
+  <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23787,6 +23787,50 @@
         <v>21.48</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B531" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C531" t="n">
+        <v>24</v>
+      </c>
+      <c r="D531" t="n">
+        <v>20.854</v>
+      </c>
+      <c r="E531" t="n">
+        <v>21.407</v>
+      </c>
+      <c r="F531" t="n">
+        <v>21.307</v>
+      </c>
+      <c r="G531" t="n">
+        <v>21.489</v>
+      </c>
+      <c r="H531" t="n">
+        <v>21.452</v>
+      </c>
+      <c r="I531" t="n">
+        <v>21.437</v>
+      </c>
+      <c r="J531" t="n">
+        <v>21.332</v>
+      </c>
+      <c r="K531" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="L531" t="n">
+        <v>22.045</v>
+      </c>
+      <c r="M531" t="n">
+        <v>21.413</v>
+      </c>
+      <c r="N531" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N531"/>
+  <dimension ref="A1:N532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23831,6 +23831,50 @@
         <v>21.48</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B532" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C532" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D532" t="n">
+        <v>20.826</v>
+      </c>
+      <c r="E532" t="n">
+        <v>21.232</v>
+      </c>
+      <c r="F532" t="n">
+        <v>20.903</v>
+      </c>
+      <c r="G532" t="n">
+        <v>21.059</v>
+      </c>
+      <c r="H532" t="n">
+        <v>21.243</v>
+      </c>
+      <c r="I532" t="n">
+        <v>21.281</v>
+      </c>
+      <c r="J532" t="n">
+        <v>21.188</v>
+      </c>
+      <c r="K532" t="n">
+        <v>21.174</v>
+      </c>
+      <c r="L532" t="n">
+        <v>21.827</v>
+      </c>
+      <c r="M532" t="n">
+        <v>21.235</v>
+      </c>
+      <c r="N532" t="n">
+        <v>21.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N532"/>
+  <dimension ref="A1:N534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23875,6 +23875,94 @@
         <v>21.48</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B533" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="C533" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D533" t="n">
+        <v>20.829</v>
+      </c>
+      <c r="E533" t="n">
+        <v>21.232</v>
+      </c>
+      <c r="F533" t="n">
+        <v>21.114</v>
+      </c>
+      <c r="G533" t="n">
+        <v>21.317</v>
+      </c>
+      <c r="H533" t="n">
+        <v>21.403</v>
+      </c>
+      <c r="I533" t="n">
+        <v>21.406</v>
+      </c>
+      <c r="J533" t="n">
+        <v>21.309</v>
+      </c>
+      <c r="K533" t="n">
+        <v>21.306</v>
+      </c>
+      <c r="L533" t="n">
+        <v>21.997</v>
+      </c>
+      <c r="M533" t="n">
+        <v>21.358</v>
+      </c>
+      <c r="N533" t="n">
+        <v>21.481</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B534" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C534" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="D534" t="n">
+        <v>20.826</v>
+      </c>
+      <c r="E534" t="n">
+        <v>21.23</v>
+      </c>
+      <c r="F534" t="n">
+        <v>21.114</v>
+      </c>
+      <c r="G534" t="n">
+        <v>21.171</v>
+      </c>
+      <c r="H534" t="n">
+        <v>21.375</v>
+      </c>
+      <c r="I534" t="n">
+        <v>21.406</v>
+      </c>
+      <c r="J534" t="n">
+        <v>21.312</v>
+      </c>
+      <c r="K534" t="n">
+        <v>21.306</v>
+      </c>
+      <c r="L534" t="n">
+        <v>21.997</v>
+      </c>
+      <c r="M534" t="n">
+        <v>21.358</v>
+      </c>
+      <c r="N534" t="n">
+        <v>21.481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N534"/>
+  <dimension ref="A1:N535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23963,6 +23963,50 @@
         <v>21.481</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B535" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C535" t="n">
+        <v>21</v>
+      </c>
+      <c r="D535" t="n">
+        <v>20.823</v>
+      </c>
+      <c r="E535" t="n">
+        <v>21.229</v>
+      </c>
+      <c r="F535" t="n">
+        <v>21.005</v>
+      </c>
+      <c r="G535" t="n">
+        <v>21.171</v>
+      </c>
+      <c r="H535" t="n">
+        <v>21.382</v>
+      </c>
+      <c r="I535" t="n">
+        <v>21.406</v>
+      </c>
+      <c r="J535" t="n">
+        <v>21.313</v>
+      </c>
+      <c r="K535" t="n">
+        <v>21.306</v>
+      </c>
+      <c r="L535" t="n">
+        <v>21.997</v>
+      </c>
+      <c r="M535" t="n">
+        <v>21.358</v>
+      </c>
+      <c r="N535" t="n">
+        <v>21.481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -23980,13 +23980,13 @@
         <v>21.229</v>
       </c>
       <c r="F535" t="n">
-        <v>21.005</v>
+        <v>21.112</v>
       </c>
       <c r="G535" t="n">
         <v>21.171</v>
       </c>
       <c r="H535" t="n">
-        <v>21.382</v>
+        <v>21.375</v>
       </c>
       <c r="I535" t="n">
         <v>21.406</v>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N535"/>
+  <dimension ref="A1:N536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24007,6 +24007,50 @@
         <v>21.481</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B536" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C536" t="n">
+        <v>21</v>
+      </c>
+      <c r="D536" t="n">
+        <v>20.823</v>
+      </c>
+      <c r="E536" t="n">
+        <v>21.229</v>
+      </c>
+      <c r="F536" t="n">
+        <v>21.268</v>
+      </c>
+      <c r="G536" t="n">
+        <v>20.983</v>
+      </c>
+      <c r="H536" t="n">
+        <v>21.201</v>
+      </c>
+      <c r="I536" t="n">
+        <v>20.986</v>
+      </c>
+      <c r="J536" t="n">
+        <v>21.166</v>
+      </c>
+      <c r="K536" t="n">
+        <v>21.141</v>
+      </c>
+      <c r="L536" t="n">
+        <v>21.809</v>
+      </c>
+      <c r="M536" t="n">
+        <v>21.257</v>
+      </c>
+      <c r="N536" t="n">
+        <v>21.481</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N536"/>
+  <dimension ref="A1:N538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24051,6 +24051,94 @@
         <v>21.481</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B537" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C537" t="n">
+        <v>21</v>
+      </c>
+      <c r="D537" t="n">
+        <v>20.611</v>
+      </c>
+      <c r="E537" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F537" t="n">
+        <v>21.073</v>
+      </c>
+      <c r="G537" t="n">
+        <v>20.792</v>
+      </c>
+      <c r="H537" t="n">
+        <v>20.882</v>
+      </c>
+      <c r="I537" t="n">
+        <v>20.712</v>
+      </c>
+      <c r="J537" t="n">
+        <v>20.892</v>
+      </c>
+      <c r="K537" t="n">
+        <v>20.867</v>
+      </c>
+      <c r="L537" t="n">
+        <v>21.811</v>
+      </c>
+      <c r="M537" t="n">
+        <v>20.981</v>
+      </c>
+      <c r="N537" t="n">
+        <v>21.206</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B538" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C538" t="n">
+        <v>21</v>
+      </c>
+      <c r="D538" t="n">
+        <v>20.609</v>
+      </c>
+      <c r="E538" t="n">
+        <v>20.899</v>
+      </c>
+      <c r="F538" t="n">
+        <v>21.113</v>
+      </c>
+      <c r="G538" t="n">
+        <v>20.732</v>
+      </c>
+      <c r="H538" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="I538" t="n">
+        <v>20.712</v>
+      </c>
+      <c r="J538" t="n">
+        <v>20.893</v>
+      </c>
+      <c r="K538" t="n">
+        <v>20.867</v>
+      </c>
+      <c r="L538" t="n">
+        <v>21.811</v>
+      </c>
+      <c r="M538" t="n">
+        <v>20.981</v>
+      </c>
+      <c r="N538" t="n">
+        <v>21.206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N538"/>
+  <dimension ref="A1:N539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24139,6 +24139,50 @@
         <v>21.206</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B539" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C539" t="n">
+        <v>21</v>
+      </c>
+      <c r="D539" t="n">
+        <v>20.609</v>
+      </c>
+      <c r="E539" t="n">
+        <v>20.898</v>
+      </c>
+      <c r="F539" t="n">
+        <v>21.216</v>
+      </c>
+      <c r="G539" t="n">
+        <v>20.916</v>
+      </c>
+      <c r="H539" t="n">
+        <v>20.979</v>
+      </c>
+      <c r="I539" t="n">
+        <v>20.816</v>
+      </c>
+      <c r="J539" t="n">
+        <v>20.995</v>
+      </c>
+      <c r="K539" t="n">
+        <v>20.996</v>
+      </c>
+      <c r="L539" t="n">
+        <v>21.954</v>
+      </c>
+      <c r="M539" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="N539" t="n">
+        <v>21.206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N539"/>
+  <dimension ref="A1:N540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24183,6 +24183,50 @@
         <v>21.206</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B540" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C540" t="n">
+        <v>21</v>
+      </c>
+      <c r="D540" t="n">
+        <v>20.612</v>
+      </c>
+      <c r="E540" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="F540" t="n">
+        <v>21.423</v>
+      </c>
+      <c r="G540" t="n">
+        <v>20.837</v>
+      </c>
+      <c r="H540" t="n">
+        <v>21.125</v>
+      </c>
+      <c r="I540" t="n">
+        <v>20.817</v>
+      </c>
+      <c r="J540" t="n">
+        <v>20.995</v>
+      </c>
+      <c r="K540" t="n">
+        <v>20.995</v>
+      </c>
+      <c r="L540" t="n">
+        <v>21.954</v>
+      </c>
+      <c r="M540" t="n">
+        <v>21.109</v>
+      </c>
+      <c r="N540" t="n">
+        <v>21.206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N540"/>
+  <dimension ref="A1:N541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24227,6 +24227,50 @@
         <v>21.206</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B541" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C541" t="n">
+        <v>21</v>
+      </c>
+      <c r="D541" t="n">
+        <v>20.612</v>
+      </c>
+      <c r="E541" t="n">
+        <v>20.899</v>
+      </c>
+      <c r="F541" t="n">
+        <v>21.423</v>
+      </c>
+      <c r="G541" t="n">
+        <v>20.837</v>
+      </c>
+      <c r="H541" t="n">
+        <v>21.125</v>
+      </c>
+      <c r="I541" t="n">
+        <v>20.817</v>
+      </c>
+      <c r="J541" t="n">
+        <v>20.995</v>
+      </c>
+      <c r="K541" t="n">
+        <v>20.996</v>
+      </c>
+      <c r="L541" t="n">
+        <v>21.955</v>
+      </c>
+      <c r="M541" t="n">
+        <v>21.109</v>
+      </c>
+      <c r="N541" t="n">
+        <v>21.206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N541"/>
+  <dimension ref="A1:N542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24271,6 +24271,50 @@
         <v>21.206</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B542" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C542" t="n">
+        <v>21</v>
+      </c>
+      <c r="D542" t="n">
+        <v>20.649</v>
+      </c>
+      <c r="E542" t="n">
+        <v>21.102</v>
+      </c>
+      <c r="F542" t="n">
+        <v>21.608</v>
+      </c>
+      <c r="G542" t="n">
+        <v>21.086</v>
+      </c>
+      <c r="H542" t="n">
+        <v>21.215</v>
+      </c>
+      <c r="I542" t="n">
+        <v>21.006</v>
+      </c>
+      <c r="J542" t="n">
+        <v>21.198</v>
+      </c>
+      <c r="K542" t="n">
+        <v>21.197</v>
+      </c>
+      <c r="L542" t="n">
+        <v>22.242</v>
+      </c>
+      <c r="M542" t="n">
+        <v>21.31</v>
+      </c>
+      <c r="N542" t="n">
+        <v>21.207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N542"/>
+  <dimension ref="A1:N543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24315,6 +24315,50 @@
         <v>21.207</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B543" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C543" t="n">
+        <v>22</v>
+      </c>
+      <c r="D543" t="n">
+        <v>20.644</v>
+      </c>
+      <c r="E543" t="n">
+        <v>21.101</v>
+      </c>
+      <c r="F543" t="n">
+        <v>21.597</v>
+      </c>
+      <c r="G543" t="n">
+        <v>21.316</v>
+      </c>
+      <c r="H543" t="n">
+        <v>21.445</v>
+      </c>
+      <c r="I543" t="n">
+        <v>21.144</v>
+      </c>
+      <c r="J543" t="n">
+        <v>21.476</v>
+      </c>
+      <c r="K543" t="n">
+        <v>21.472</v>
+      </c>
+      <c r="L543" t="n">
+        <v>22.241</v>
+      </c>
+      <c r="M543" t="n">
+        <v>21.448</v>
+      </c>
+      <c r="N543" t="n">
+        <v>21.345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N543"/>
+  <dimension ref="A1:N544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24359,6 +24359,50 @@
         <v>21.345</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B544" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C544" t="n">
+        <v>22</v>
+      </c>
+      <c r="D544" t="n">
+        <v>20.642</v>
+      </c>
+      <c r="E544" t="n">
+        <v>21.101</v>
+      </c>
+      <c r="F544" t="n">
+        <v>21.597</v>
+      </c>
+      <c r="G544" t="n">
+        <v>21.315</v>
+      </c>
+      <c r="H544" t="n">
+        <v>21.445</v>
+      </c>
+      <c r="I544" t="n">
+        <v>21.143</v>
+      </c>
+      <c r="J544" t="n">
+        <v>21.476</v>
+      </c>
+      <c r="K544" t="n">
+        <v>21.472</v>
+      </c>
+      <c r="L544" t="n">
+        <v>22.242</v>
+      </c>
+      <c r="M544" t="n">
+        <v>21.448</v>
+      </c>
+      <c r="N544" t="n">
+        <v>21.345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N544"/>
+  <dimension ref="A1:N545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24403,6 +24403,50 @@
         <v>21.345</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B545" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C545" t="n">
+        <v>22</v>
+      </c>
+      <c r="D545" t="n">
+        <v>20.645</v>
+      </c>
+      <c r="E545" t="n">
+        <v>21.101</v>
+      </c>
+      <c r="F545" t="n">
+        <v>21.602</v>
+      </c>
+      <c r="G545" t="n">
+        <v>21.32</v>
+      </c>
+      <c r="H545" t="n">
+        <v>21.495</v>
+      </c>
+      <c r="I545" t="n">
+        <v>21.143</v>
+      </c>
+      <c r="J545" t="n">
+        <v>21.477</v>
+      </c>
+      <c r="K545" t="n">
+        <v>21.472</v>
+      </c>
+      <c r="L545" t="n">
+        <v>22.242</v>
+      </c>
+      <c r="M545" t="n">
+        <v>21.448</v>
+      </c>
+      <c r="N545" t="n">
+        <v>21.345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N545"/>
+  <dimension ref="A1:N546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24447,6 +24447,50 @@
         <v>21.345</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B546" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C546" t="n">
+        <v>22</v>
+      </c>
+      <c r="D546" t="n">
+        <v>20.638</v>
+      </c>
+      <c r="E546" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="F546" t="n">
+        <v>21.694</v>
+      </c>
+      <c r="G546" t="n">
+        <v>21.306</v>
+      </c>
+      <c r="H546" t="n">
+        <v>21.471</v>
+      </c>
+      <c r="I546" t="n">
+        <v>21.117</v>
+      </c>
+      <c r="J546" t="n">
+        <v>21.45</v>
+      </c>
+      <c r="K546" t="n">
+        <v>21.446</v>
+      </c>
+      <c r="L546" t="n">
+        <v>22.212</v>
+      </c>
+      <c r="M546" t="n">
+        <v>21.413</v>
+      </c>
+      <c r="N546" t="n">
+        <v>21.346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N546"/>
+  <dimension ref="A1:N547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24491,6 +24491,50 @@
         <v>21.346</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B547" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C547" t="n">
+        <v>22</v>
+      </c>
+      <c r="D547" t="n">
+        <v>21.466</v>
+      </c>
+      <c r="E547" t="n">
+        <v>21.926</v>
+      </c>
+      <c r="F547" t="n">
+        <v>23.547</v>
+      </c>
+      <c r="G547" t="n">
+        <v>23.292</v>
+      </c>
+      <c r="H547" t="n">
+        <v>22.428</v>
+      </c>
+      <c r="I547" t="n">
+        <v>22.206</v>
+      </c>
+      <c r="J547" t="n">
+        <v>22.08</v>
+      </c>
+      <c r="K547" t="n">
+        <v>21.993</v>
+      </c>
+      <c r="L547" t="n">
+        <v>22.475</v>
+      </c>
+      <c r="M547" t="n">
+        <v>21.681</v>
+      </c>
+      <c r="N547" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N547"/>
+  <dimension ref="A1:N548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24535,6 +24535,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B548" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="C548" t="n">
+        <v>22</v>
+      </c>
+      <c r="D548" t="n">
+        <v>21.528</v>
+      </c>
+      <c r="E548" t="n">
+        <v>21.976</v>
+      </c>
+      <c r="F548" t="n">
+        <v>23.916</v>
+      </c>
+      <c r="G548" t="n">
+        <v>23.338</v>
+      </c>
+      <c r="H548" t="n">
+        <v>22.53</v>
+      </c>
+      <c r="I548" t="n">
+        <v>22.448</v>
+      </c>
+      <c r="J548" t="n">
+        <v>22.288</v>
+      </c>
+      <c r="K548" t="n">
+        <v>22.211</v>
+      </c>
+      <c r="L548" t="n">
+        <v>22.752</v>
+      </c>
+      <c r="M548" t="n">
+        <v>21.903</v>
+      </c>
+      <c r="N548" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N548"/>
+  <dimension ref="A1:N549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24579,6 +24579,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B549" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="C549" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="D549" t="n">
+        <v>21.528</v>
+      </c>
+      <c r="E549" t="n">
+        <v>21.976</v>
+      </c>
+      <c r="F549" t="n">
+        <v>23.961</v>
+      </c>
+      <c r="G549" t="n">
+        <v>23.084</v>
+      </c>
+      <c r="H549" t="n">
+        <v>22.331</v>
+      </c>
+      <c r="I549" t="n">
+        <v>22.625</v>
+      </c>
+      <c r="J549" t="n">
+        <v>22.288</v>
+      </c>
+      <c r="K549" t="n">
+        <v>22.211</v>
+      </c>
+      <c r="L549" t="n">
+        <v>22.752</v>
+      </c>
+      <c r="M549" t="n">
+        <v>21.903</v>
+      </c>
+      <c r="N549" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N549"/>
+  <dimension ref="A1:N550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24623,6 +24623,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B550" t="n">
+        <v>24</v>
+      </c>
+      <c r="C550" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D550" t="n">
+        <v>21.527</v>
+      </c>
+      <c r="E550" t="n">
+        <v>21.974</v>
+      </c>
+      <c r="F550" t="n">
+        <v>23.961</v>
+      </c>
+      <c r="G550" t="n">
+        <v>23.084</v>
+      </c>
+      <c r="H550" t="n">
+        <v>22.332</v>
+      </c>
+      <c r="I550" t="n">
+        <v>22.624</v>
+      </c>
+      <c r="J550" t="n">
+        <v>22.289</v>
+      </c>
+      <c r="K550" t="n">
+        <v>22.211</v>
+      </c>
+      <c r="L550" t="n">
+        <v>22.752</v>
+      </c>
+      <c r="M550" t="n">
+        <v>21.903</v>
+      </c>
+      <c r="N550" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N550"/>
+  <dimension ref="A1:N551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24667,6 +24667,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B551" t="n">
+        <v>26</v>
+      </c>
+      <c r="C551" t="n">
+        <v>26</v>
+      </c>
+      <c r="D551" t="n">
+        <v>21.737</v>
+      </c>
+      <c r="E551" t="n">
+        <v>22.492</v>
+      </c>
+      <c r="F551" t="n">
+        <v>24.823</v>
+      </c>
+      <c r="G551" t="n">
+        <v>23.355</v>
+      </c>
+      <c r="H551" t="n">
+        <v>23.056</v>
+      </c>
+      <c r="I551" t="n">
+        <v>22.984</v>
+      </c>
+      <c r="J551" t="n">
+        <v>22.691</v>
+      </c>
+      <c r="K551" t="n">
+        <v>22.569</v>
+      </c>
+      <c r="L551" t="n">
+        <v>22.853</v>
+      </c>
+      <c r="M551" t="n">
+        <v>22.167</v>
+      </c>
+      <c r="N551" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N551"/>
+  <dimension ref="A1:N552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24711,6 +24711,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B552" t="n">
+        <v>24</v>
+      </c>
+      <c r="C552" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D552" t="n">
+        <v>21.719</v>
+      </c>
+      <c r="E552" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="F552" t="n">
+        <v>24.783</v>
+      </c>
+      <c r="G552" t="n">
+        <v>23.329</v>
+      </c>
+      <c r="H552" t="n">
+        <v>23.029</v>
+      </c>
+      <c r="I552" t="n">
+        <v>23.067</v>
+      </c>
+      <c r="J552" t="n">
+        <v>22.666</v>
+      </c>
+      <c r="K552" t="n">
+        <v>22.532</v>
+      </c>
+      <c r="L552" t="n">
+        <v>22.816</v>
+      </c>
+      <c r="M552" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="N552" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N552"/>
+  <dimension ref="A1:N553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24755,6 +24755,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B553" t="n">
+        <v>30</v>
+      </c>
+      <c r="C553" t="n">
+        <v>30</v>
+      </c>
+      <c r="D553" t="n">
+        <v>21.713</v>
+      </c>
+      <c r="E553" t="n">
+        <v>22.478</v>
+      </c>
+      <c r="F553" t="n">
+        <v>24.782</v>
+      </c>
+      <c r="G553" t="n">
+        <v>23.327</v>
+      </c>
+      <c r="H553" t="n">
+        <v>23.029</v>
+      </c>
+      <c r="I553" t="n">
+        <v>23.067</v>
+      </c>
+      <c r="J553" t="n">
+        <v>22.667</v>
+      </c>
+      <c r="K553" t="n">
+        <v>22.532</v>
+      </c>
+      <c r="L553" t="n">
+        <v>22.817</v>
+      </c>
+      <c r="M553" t="n">
+        <v>22.13</v>
+      </c>
+      <c r="N553" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N553"/>
+  <dimension ref="A1:N554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24799,6 +24799,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B554" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C554" t="n">
+        <v>29</v>
+      </c>
+      <c r="D554" t="n">
+        <v>21.895</v>
+      </c>
+      <c r="E554" t="n">
+        <v>22.589</v>
+      </c>
+      <c r="F554" t="n">
+        <v>24.496</v>
+      </c>
+      <c r="G554" t="n">
+        <v>23.427</v>
+      </c>
+      <c r="H554" t="n">
+        <v>23.177</v>
+      </c>
+      <c r="I554" t="n">
+        <v>23.235</v>
+      </c>
+      <c r="J554" t="n">
+        <v>22.896</v>
+      </c>
+      <c r="K554" t="n">
+        <v>22.782</v>
+      </c>
+      <c r="L554" t="n">
+        <v>23.086</v>
+      </c>
+      <c r="M554" t="n">
+        <v>22.463</v>
+      </c>
+      <c r="N554" t="n">
+        <v>21.622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N554"/>
+  <dimension ref="A1:N555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24843,6 +24843,50 @@
         <v>21.622</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B555" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C555" t="n">
+        <v>32</v>
+      </c>
+      <c r="D555" t="n">
+        <v>22.395</v>
+      </c>
+      <c r="E555" t="n">
+        <v>24.289</v>
+      </c>
+      <c r="F555" t="n">
+        <v>26.079</v>
+      </c>
+      <c r="G555" t="n">
+        <v>24.594</v>
+      </c>
+      <c r="H555" t="n">
+        <v>26.064</v>
+      </c>
+      <c r="I555" t="n">
+        <v>26.169</v>
+      </c>
+      <c r="J555" t="n">
+        <v>27.927</v>
+      </c>
+      <c r="K555" t="n">
+        <v>26.725</v>
+      </c>
+      <c r="L555" t="n">
+        <v>27.146</v>
+      </c>
+      <c r="M555" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="N555" t="n">
+        <v>25.205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N555"/>
+  <dimension ref="A1:N557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24887,6 +24887,94 @@
         <v>25.205</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B556" t="n">
+        <v>32</v>
+      </c>
+      <c r="C556" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D556" t="n">
+        <v>22.332</v>
+      </c>
+      <c r="E556" t="n">
+        <v>25.037</v>
+      </c>
+      <c r="F556" t="n">
+        <v>26.952</v>
+      </c>
+      <c r="G556" t="n">
+        <v>24.427</v>
+      </c>
+      <c r="H556" t="n">
+        <v>25.935</v>
+      </c>
+      <c r="I556" t="n">
+        <v>26.165</v>
+      </c>
+      <c r="J556" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="K556" t="n">
+        <v>27.692</v>
+      </c>
+      <c r="L556" t="n">
+        <v>30.352</v>
+      </c>
+      <c r="M556" t="n">
+        <v>28.265</v>
+      </c>
+      <c r="N556" t="n">
+        <v>25.206</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B557" t="n">
+        <v>30</v>
+      </c>
+      <c r="C557" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D557" t="n">
+        <v>21.974</v>
+      </c>
+      <c r="E557" t="n">
+        <v>24.656</v>
+      </c>
+      <c r="F557" t="n">
+        <v>25.796</v>
+      </c>
+      <c r="G557" t="n">
+        <v>24.059</v>
+      </c>
+      <c r="H557" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="I557" t="n">
+        <v>25.593</v>
+      </c>
+      <c r="J557" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="K557" t="n">
+        <v>27.128</v>
+      </c>
+      <c r="L557" t="n">
+        <v>29.577</v>
+      </c>
+      <c r="M557" t="n">
+        <v>27.538</v>
+      </c>
+      <c r="N557" t="n">
+        <v>25.206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N557"/>
+  <dimension ref="A1:N558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24975,6 +24975,50 @@
         <v>25.206</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B558" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C558" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D558" t="n">
+        <v>23.098</v>
+      </c>
+      <c r="E558" t="n">
+        <v>25.14</v>
+      </c>
+      <c r="F558" t="n">
+        <v>27.846</v>
+      </c>
+      <c r="G558" t="n">
+        <v>25.844</v>
+      </c>
+      <c r="H558" t="n">
+        <v>25.816</v>
+      </c>
+      <c r="I558" t="n">
+        <v>25.846</v>
+      </c>
+      <c r="J558" t="n">
+        <v>26.286</v>
+      </c>
+      <c r="K558" t="n">
+        <v>26.125</v>
+      </c>
+      <c r="L558" t="n">
+        <v>26.044</v>
+      </c>
+      <c r="M558" t="n">
+        <v>26.926</v>
+      </c>
+      <c r="N558" t="n">
+        <v>25.489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N558"/>
+  <dimension ref="A1:N559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25019,6 +25019,50 @@
         <v>25.489</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B559" t="n">
+        <v>29</v>
+      </c>
+      <c r="C559" t="n">
+        <v>29</v>
+      </c>
+      <c r="D559" t="n">
+        <v>23.082</v>
+      </c>
+      <c r="E559" t="n">
+        <v>25.135</v>
+      </c>
+      <c r="F559" t="n">
+        <v>27.892</v>
+      </c>
+      <c r="G559" t="n">
+        <v>25.844</v>
+      </c>
+      <c r="H559" t="n">
+        <v>25.815</v>
+      </c>
+      <c r="I559" t="n">
+        <v>26.157</v>
+      </c>
+      <c r="J559" t="n">
+        <v>26.212</v>
+      </c>
+      <c r="K559" t="n">
+        <v>26.125</v>
+      </c>
+      <c r="L559" t="n">
+        <v>26.044</v>
+      </c>
+      <c r="M559" t="n">
+        <v>26.927</v>
+      </c>
+      <c r="N559" t="n">
+        <v>25.489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N559"/>
+  <dimension ref="A1:N560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25063,6 +25063,50 @@
         <v>25.489</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B560" t="n">
+        <v>29</v>
+      </c>
+      <c r="C560" t="n">
+        <v>29</v>
+      </c>
+      <c r="D560" t="n">
+        <v>23.082</v>
+      </c>
+      <c r="E560" t="n">
+        <v>25.135</v>
+      </c>
+      <c r="F560" t="n">
+        <v>27.928</v>
+      </c>
+      <c r="G560" t="n">
+        <v>25.844</v>
+      </c>
+      <c r="H560" t="n">
+        <v>25.815</v>
+      </c>
+      <c r="I560" t="n">
+        <v>26.157</v>
+      </c>
+      <c r="J560" t="n">
+        <v>26.212</v>
+      </c>
+      <c r="K560" t="n">
+        <v>26.125</v>
+      </c>
+      <c r="L560" t="n">
+        <v>26.044</v>
+      </c>
+      <c r="M560" t="n">
+        <v>26.927</v>
+      </c>
+      <c r="N560" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N560"/>
+  <dimension ref="A1:N561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25107,6 +25107,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B561" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C561" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="D561" t="n">
+        <v>23.066</v>
+      </c>
+      <c r="E561" t="n">
+        <v>25.094</v>
+      </c>
+      <c r="F561" t="n">
+        <v>27.819</v>
+      </c>
+      <c r="G561" t="n">
+        <v>25.79</v>
+      </c>
+      <c r="H561" t="n">
+        <v>25.808</v>
+      </c>
+      <c r="I561" t="n">
+        <v>26.776</v>
+      </c>
+      <c r="J561" t="n">
+        <v>27.052</v>
+      </c>
+      <c r="K561" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="L561" t="n">
+        <v>26.472</v>
+      </c>
+      <c r="M561" t="n">
+        <v>27.299</v>
+      </c>
+      <c r="N561" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N561"/>
+  <dimension ref="A1:N562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25151,6 +25151,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B562" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C562" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="D562" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="E562" t="n">
+        <v>25.096</v>
+      </c>
+      <c r="F562" t="n">
+        <v>27.886</v>
+      </c>
+      <c r="G562" t="n">
+        <v>25.789</v>
+      </c>
+      <c r="H562" t="n">
+        <v>25.808</v>
+      </c>
+      <c r="I562" t="n">
+        <v>26.607</v>
+      </c>
+      <c r="J562" t="n">
+        <v>26.77</v>
+      </c>
+      <c r="K562" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="L562" t="n">
+        <v>26.472</v>
+      </c>
+      <c r="M562" t="n">
+        <v>27.299</v>
+      </c>
+      <c r="N562" t="n">
+        <v>25.489</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N562"/>
+  <dimension ref="A1:N563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25195,6 +25195,50 @@
         <v>25.489</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B563" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C563" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D563" t="n">
+        <v>23.065</v>
+      </c>
+      <c r="E563" t="n">
+        <v>25.094</v>
+      </c>
+      <c r="F563" t="n">
+        <v>28.365</v>
+      </c>
+      <c r="G563" t="n">
+        <v>25.958</v>
+      </c>
+      <c r="H563" t="n">
+        <v>26.042</v>
+      </c>
+      <c r="I563" t="n">
+        <v>26.605</v>
+      </c>
+      <c r="J563" t="n">
+        <v>26.767</v>
+      </c>
+      <c r="K563" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="L563" t="n">
+        <v>26.472</v>
+      </c>
+      <c r="M563" t="n">
+        <v>27.299</v>
+      </c>
+      <c r="N563" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N563"/>
+  <dimension ref="A1:N564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25239,6 +25239,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B564" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C564" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D564" t="n">
+        <v>23.063</v>
+      </c>
+      <c r="E564" t="n">
+        <v>25.094</v>
+      </c>
+      <c r="F564" t="n">
+        <v>28.392</v>
+      </c>
+      <c r="G564" t="n">
+        <v>25.958</v>
+      </c>
+      <c r="H564" t="n">
+        <v>26.042</v>
+      </c>
+      <c r="I564" t="n">
+        <v>26.569</v>
+      </c>
+      <c r="J564" t="n">
+        <v>26.721</v>
+      </c>
+      <c r="K564" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="L564" t="n">
+        <v>26.472</v>
+      </c>
+      <c r="M564" t="n">
+        <v>27.299</v>
+      </c>
+      <c r="N564" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N564"/>
+  <dimension ref="A1:N565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25283,6 +25283,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B565" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C565" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D565" t="n">
+        <v>23.062</v>
+      </c>
+      <c r="E565" t="n">
+        <v>25.094</v>
+      </c>
+      <c r="F565" t="n">
+        <v>28.392</v>
+      </c>
+      <c r="G565" t="n">
+        <v>25.958</v>
+      </c>
+      <c r="H565" t="n">
+        <v>26.042</v>
+      </c>
+      <c r="I565" t="n">
+        <v>26.569</v>
+      </c>
+      <c r="J565" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="K565" t="n">
+        <v>26.531</v>
+      </c>
+      <c r="L565" t="n">
+        <v>26.472</v>
+      </c>
+      <c r="M565" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="N565" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N565"/>
+  <dimension ref="A1:N566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25327,6 +25327,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B566" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="C566" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D566" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E566" t="n">
+        <v>25.185</v>
+      </c>
+      <c r="F566" t="n">
+        <v>28.306</v>
+      </c>
+      <c r="G566" t="n">
+        <v>25.949</v>
+      </c>
+      <c r="H566" t="n">
+        <v>26.045</v>
+      </c>
+      <c r="I566" t="n">
+        <v>26.573</v>
+      </c>
+      <c r="J566" t="n">
+        <v>26.534</v>
+      </c>
+      <c r="K566" t="n">
+        <v>26.304</v>
+      </c>
+      <c r="L566" t="n">
+        <v>26.246</v>
+      </c>
+      <c r="M566" t="n">
+        <v>27.299</v>
+      </c>
+      <c r="N566" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N566"/>
+  <dimension ref="A1:N567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25371,6 +25371,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B567" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C567" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D567" t="n">
+        <v>23.141</v>
+      </c>
+      <c r="E567" t="n">
+        <v>25.167</v>
+      </c>
+      <c r="F567" t="n">
+        <v>28.275</v>
+      </c>
+      <c r="G567" t="n">
+        <v>25.934</v>
+      </c>
+      <c r="H567" t="n">
+        <v>26.021</v>
+      </c>
+      <c r="I567" t="n">
+        <v>26.538</v>
+      </c>
+      <c r="J567" t="n">
+        <v>26.497</v>
+      </c>
+      <c r="K567" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="L567" t="n">
+        <v>26.211</v>
+      </c>
+      <c r="M567" t="n">
+        <v>27.265</v>
+      </c>
+      <c r="N567" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N567"/>
+  <dimension ref="A1:N568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25415,6 +25415,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B568" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C568" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D568" t="n">
+        <v>23.138</v>
+      </c>
+      <c r="E568" t="n">
+        <v>25.167</v>
+      </c>
+      <c r="F568" t="n">
+        <v>28.275</v>
+      </c>
+      <c r="G568" t="n">
+        <v>25.934</v>
+      </c>
+      <c r="H568" t="n">
+        <v>26.021</v>
+      </c>
+      <c r="I568" t="n">
+        <v>26.538</v>
+      </c>
+      <c r="J568" t="n">
+        <v>26.498</v>
+      </c>
+      <c r="K568" t="n">
+        <v>26.27</v>
+      </c>
+      <c r="L568" t="n">
+        <v>26.211</v>
+      </c>
+      <c r="M568" t="n">
+        <v>27.265</v>
+      </c>
+      <c r="N568" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N568"/>
+  <dimension ref="A1:N569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25459,6 +25459,50 @@
         <v>25.49</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B569" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C569" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D569" t="n">
+        <v>23.132</v>
+      </c>
+      <c r="E569" t="n">
+        <v>25.073</v>
+      </c>
+      <c r="F569" t="n">
+        <v>28.085</v>
+      </c>
+      <c r="G569" t="n">
+        <v>25.528</v>
+      </c>
+      <c r="H569" t="n">
+        <v>26.116</v>
+      </c>
+      <c r="I569" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="J569" t="n">
+        <v>26.587</v>
+      </c>
+      <c r="K569" t="n">
+        <v>26.378</v>
+      </c>
+      <c r="L569" t="n">
+        <v>26.205</v>
+      </c>
+      <c r="M569" t="n">
+        <v>26.47</v>
+      </c>
+      <c r="N569" t="n">
+        <v>24.699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N569"/>
+  <dimension ref="A1:N570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25503,6 +25503,50 @@
         <v>24.699</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B570" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="C570" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D570" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="E570" t="n">
+        <v>25.162</v>
+      </c>
+      <c r="F570" t="n">
+        <v>28.749</v>
+      </c>
+      <c r="G570" t="n">
+        <v>25.706</v>
+      </c>
+      <c r="H570" t="n">
+        <v>26.399</v>
+      </c>
+      <c r="I570" t="n">
+        <v>26.701</v>
+      </c>
+      <c r="J570" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="K570" t="n">
+        <v>26.673</v>
+      </c>
+      <c r="L570" t="n">
+        <v>26.532</v>
+      </c>
+      <c r="M570" t="n">
+        <v>26.784</v>
+      </c>
+      <c r="N570" t="n">
+        <v>24.699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N570"/>
+  <dimension ref="A1:N571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25547,6 +25547,50 @@
         <v>24.699</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B571" t="n">
+        <v>32</v>
+      </c>
+      <c r="C571" t="n">
+        <v>30</v>
+      </c>
+      <c r="D571" t="n">
+        <v>23.293</v>
+      </c>
+      <c r="E571" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="F571" t="n">
+        <v>28.138</v>
+      </c>
+      <c r="G571" t="n">
+        <v>25.706</v>
+      </c>
+      <c r="H571" t="n">
+        <v>26.396</v>
+      </c>
+      <c r="I571" t="n">
+        <v>26.652</v>
+      </c>
+      <c r="J571" t="n">
+        <v>26.923</v>
+      </c>
+      <c r="K571" t="n">
+        <v>26.671</v>
+      </c>
+      <c r="L571" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="M571" t="n">
+        <v>26.784</v>
+      </c>
+      <c r="N571" t="n">
+        <v>24.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N571"/>
+  <dimension ref="A1:N573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25591,6 +25591,94 @@
         <v>24.7</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B572" t="n">
+        <v>33</v>
+      </c>
+      <c r="C572" t="n">
+        <v>31</v>
+      </c>
+      <c r="D572" t="n">
+        <v>23.338</v>
+      </c>
+      <c r="E572" t="n">
+        <v>24.778</v>
+      </c>
+      <c r="F572" t="n">
+        <v>30.053</v>
+      </c>
+      <c r="G572" t="n">
+        <v>25.794</v>
+      </c>
+      <c r="H572" t="n">
+        <v>26.437</v>
+      </c>
+      <c r="I572" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="J572" t="n">
+        <v>27.403</v>
+      </c>
+      <c r="K572" t="n">
+        <v>26.971</v>
+      </c>
+      <c r="L572" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="M572" t="n">
+        <v>26.628</v>
+      </c>
+      <c r="N572" t="n">
+        <v>25.267</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B573" t="n">
+        <v>32</v>
+      </c>
+      <c r="C573" t="n">
+        <v>31</v>
+      </c>
+      <c r="D573" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E573" t="n">
+        <v>24.781</v>
+      </c>
+      <c r="F573" t="n">
+        <v>28.666</v>
+      </c>
+      <c r="G573" t="n">
+        <v>25.795</v>
+      </c>
+      <c r="H573" t="n">
+        <v>26.438</v>
+      </c>
+      <c r="I573" t="n">
+        <v>27.111</v>
+      </c>
+      <c r="J573" t="n">
+        <v>27.411</v>
+      </c>
+      <c r="K573" t="n">
+        <v>26.971</v>
+      </c>
+      <c r="L573" t="n">
+        <v>27.781</v>
+      </c>
+      <c r="M573" t="n">
+        <v>26.628</v>
+      </c>
+      <c r="N573" t="n">
+        <v>25.269</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Sri Lanka.xlsx
+++ b/Bonds_Sri Lanka.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N573"/>
+  <dimension ref="A1:N574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25679,6 +25679,50 @@
         <v>25.269</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B574" t="n">
+        <v>33</v>
+      </c>
+      <c r="C574" t="n">
+        <v>31</v>
+      </c>
+      <c r="D574" t="n">
+        <v>23.733</v>
+      </c>
+      <c r="E574" t="n">
+        <v>25.033</v>
+      </c>
+      <c r="F574" t="n">
+        <v>29.156</v>
+      </c>
+      <c r="G574" t="n">
+        <v>25.989</v>
+      </c>
+      <c r="H574" t="n">
+        <v>26.698</v>
+      </c>
+      <c r="I574" t="n">
+        <v>27.514</v>
+      </c>
+      <c r="J574" t="n">
+        <v>27.805</v>
+      </c>
+      <c r="K574" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="L574" t="n">
+        <v>28.169</v>
+      </c>
+      <c r="M574" t="n">
+        <v>26.843</v>
+      </c>
+      <c r="N574" t="n">
+        <v>25.268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
